--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/17/word_level_predictions_17.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1225,161 +1225,161 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1802,262 +1802,262 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>30m</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3726,54 +3726,54 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_B</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5286,156 +5286,156 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -7257,57 +7257,57 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F132" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8146,364 +8146,364 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" t="n">
         <v>10</v>
       </c>
-      <c r="B149" s="2" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" t="n">
         <v>0</v>
       </c>
-      <c r="E149" s="2" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" s="2" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L149" s="2" t="inlineStr">
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" t="n">
         <v>10</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" s="2" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L150" s="2" t="inlineStr">
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" t="n">
         <v>10</v>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" t="n">
         <v>2</v>
       </c>
-      <c r="E151" s="2" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" s="2" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" s="2" t="inlineStr">
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" t="n">
         <v>10</v>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" s="2" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" t="n">
         <v>3</v>
       </c>
-      <c r="E152" s="2" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" s="2" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" s="2" t="inlineStr">
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" t="n">
         <v>10</v>
       </c>
-      <c r="B153" s="2" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" s="2" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" t="n">
         <v>4</v>
       </c>
-      <c r="E153" s="2" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" s="2" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" s="2" t="inlineStr">
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" t="n">
         <v>10</v>
       </c>
-      <c r="B154" s="2" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" t="n">
         <v>5</v>
       </c>
-      <c r="E154" s="2" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" s="2" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L154" s="2" t="inlineStr">
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" t="n">
         <v>10</v>
       </c>
-      <c r="B155" s="2" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" s="2" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" t="n">
         <v>6</v>
       </c>
-      <c r="E155" s="2" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" s="2" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G155" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L155" s="2" t="inlineStr">
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -8545,11 +8545,11 @@
         </is>
       </c>
       <c r="I156" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K156" s="2" t="b">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8597,11 +8597,11 @@
         </is>
       </c>
       <c r="I157" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8649,11 +8649,11 @@
         </is>
       </c>
       <c r="I158" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8701,11 +8701,11 @@
         </is>
       </c>
       <c r="I159" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K159" s="2" t="b">
@@ -9706,260 +9706,260 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>11</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Positioning</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>3</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F179" s="2" t="inlineStr">
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>11</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>4</v>
+      </c>
+      <c r="E180" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
         <v>11</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E180" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>5</v>
+      </c>
+      <c r="E181" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F180" s="2" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
         <v>11</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>6</v>
+      </c>
+      <c r="E182" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F181" s="2" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
         <v>11</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>compromised</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>7</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F183" s="2" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/17/word_level_predictions_17.xlsx
@@ -1201,185 +1201,185 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Restart</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Restart</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>camera</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1802,262 +1802,262 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" t="n">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>8</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>9</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>30m</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>11</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3726,54 +3726,54 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5286,156 +5286,156 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>6</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>6</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>No GPS signal Unable to hover Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>4</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E95" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>No GPS signal Unable to hover Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7233,81 +7233,81 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>9</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8146,364 +8146,364 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="G149" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" t="inlineStr">
+      <c r="D150" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="G150" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="G151" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="G152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="G153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" t="b">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K154" t="b">
-        <v>1</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="G154" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F155" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G155" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" t="b">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K155" t="b">
-        <v>1</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="G155" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -8545,11 +8545,11 @@
         </is>
       </c>
       <c r="I156" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K156" s="2" t="b">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8597,11 +8597,11 @@
         </is>
       </c>
       <c r="I157" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8649,11 +8649,11 @@
         </is>
       </c>
       <c r="I158" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8701,11 +8701,11 @@
         </is>
       </c>
       <c r="I159" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K159" s="2" t="b">
@@ -9706,260 +9706,260 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>Positioning</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F181" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F182" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>compromised</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="F183" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
